--- a/pred_ohlcv/54_23/2019-10-16 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-16 ANKR ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -645,7 +645,7 @@
         <v>2.95</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -668,7 +668,7 @@
         <v>2.99</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -760,10 +760,10 @@
         <v>2.95</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -783,10 +783,10 @@
         <v>2.96</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -806,10 +806,10 @@
         <v>2.97</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -829,10 +829,10 @@
         <v>2.96</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -875,10 +875,10 @@
         <v>2.98</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -944,10 +944,10 @@
         <v>2.94</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -967,10 +967,10 @@
         <v>2.93</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -990,10 +990,10 @@
         <v>2.92</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1013,10 +1013,10 @@
         <v>2.93</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1036,10 +1036,10 @@
         <v>2.93</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1059,10 +1059,10 @@
         <v>2.93</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1082,10 +1082,10 @@
         <v>2.94</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1105,10 +1105,10 @@
         <v>2.94</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1128,10 +1128,10 @@
         <v>2.94</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1151,10 +1151,10 @@
         <v>2.95</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1174,10 +1174,10 @@
         <v>2.95</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1197,10 +1197,10 @@
         <v>2.94</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1220,10 +1220,10 @@
         <v>2.91</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1243,10 +1243,10 @@
         <v>2.93</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1266,10 +1266,10 @@
         <v>2.91</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1289,10 +1289,10 @@
         <v>2.93</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1312,10 +1312,10 @@
         <v>2.92</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1335,10 +1335,10 @@
         <v>2.91</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1358,7 +1358,7 @@
         <v>2.9</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>2.9</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>2.89</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>2.86</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>2.9</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>2.9</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>2.89</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>2.88</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -1680,7 +1680,7 @@
         <v>2.89</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>2.92</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>2.92</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -1887,7 +1887,7 @@
         <v>2.87</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>2.91</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -1933,10 +1933,10 @@
         <v>2.96</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1956,10 +1956,10 @@
         <v>2.94</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1979,10 +1979,10 @@
         <v>2.91</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2002,10 +2002,10 @@
         <v>2.89</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2646,10 +2646,10 @@
         <v>2.87</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2669,10 +2669,10 @@
         <v>2.86</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2692,10 +2692,10 @@
         <v>2.85</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2715,10 +2715,10 @@
         <v>2.84</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2738,10 +2738,10 @@
         <v>2.83</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2761,10 +2761,10 @@
         <v>2.83</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2784,7 +2784,7 @@
         <v>2.82</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -3136,6 +3136,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>